--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.83069999999998</v>
+        <v>-20.67309999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.74020000000001</v>
+        <v>-22.69340000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.9217</v>
+        <v>-22.00539999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>5.040200000000002</v>
+        <v>4.935000000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.33530000000001</v>
+        <v>-22.35070000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.250599999999999</v>
+        <v>5.538200000000002</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.741799999999999</v>
+        <v>4.772699999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.118299999999995</v>
+        <v>5.119399999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53509999999999</v>
+        <v>-21.51989999999997</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-23.14900000000001</v>
+        <v>-23.04560000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.034199999999996</v>
+        <v>4.811299999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.23009999999998</v>
+        <v>-22.29569999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>5.128999999999998</v>
+        <v>5.591199999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.3054</v>
+        <v>10.1215</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.176800000000004</v>
+        <v>9.227500000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.20439999999999</v>
+        <v>-22.21239999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7071</v>
+        <v>-21.7216</v>
       </c>
       <c r="B29" t="n">
-        <v>4.964600000000002</v>
+        <v>5.081100000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.75570000000001</v>
+        <v>-21.82180000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.18449999999999</v>
+        <v>-21.26739999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.581200000000006</v>
+        <v>8.985400000000004</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.85859999999998</v>
+        <v>-19.74259999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.911499999999997</v>
+        <v>9.759699999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.246600000000003</v>
+        <v>5.468800000000001</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.155800000000003</v>
+        <v>5.4715</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.875900000000001</v>
+        <v>4.9286</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.12209999999999</v>
+        <v>-22.11699999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>5.335400000000003</v>
+        <v>5.321500000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.456799999999998</v>
+        <v>4.494599999999997</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.15499999999999</v>
+        <v>-22.20659999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>5.267399999999999</v>
+        <v>5.480199999999996</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0731</v>
+        <v>-22.0698</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.67140000000002</v>
+        <v>-22.66560000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>4.995199999999996</v>
+        <v>4.916899999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2723</v>
+        <v>-22.25590000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.22700000000001</v>
+        <v>-22.1767</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.214400000000003</v>
+        <v>5.338000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.49140000000001</v>
+        <v>-21.486</v>
       </c>
       <c r="B66" t="n">
-        <v>4.860999999999995</v>
+        <v>4.965399999999995</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.378399999999998</v>
+        <v>5.125599999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.10559999999998</v>
+        <v>-20.27599999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-22.00869999999999</v>
+        <v>-21.92419999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.03789999999998</v>
+        <v>-20.23039999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.981900000000005</v>
+        <v>9.612400000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.412099999999998</v>
+        <v>5.347700000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.851999999999997</v>
+        <v>4.905899999999999</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.43260000000002</v>
+        <v>-21.49530000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>4.917899999999996</v>
+        <v>4.696399999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.221899999999998</v>
+        <v>6.317299999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1214</v>
+        <v>-22.1462</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
